--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,27 +46,24 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
@@ -79,21 +76,21 @@
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
@@ -103,43 +100,40 @@
     <t>item</t>
   </si>
   <si>
-    <t>back</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>buy</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>made</t>
   </si>
   <si>
     <t>little</t>
@@ -148,21 +142,21 @@
     <t>like</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -190,19 +184,19 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>learn</t>
   </si>
   <si>
     <t>christmas</t>
@@ -581,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,37 +644,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K3">
-        <v>0.9076923076923077</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -721,16 +715,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7746478873239436</v>
+        <v>0.71875</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,31 +762,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>0.8279569892473119</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5">
+        <v>77</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5">
-        <v>0.8172043010752689</v>
-      </c>
-      <c r="L5">
-        <v>76</v>
-      </c>
-      <c r="M5">
-        <v>76</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.703125</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>0.796875</v>
@@ -850,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6774193548387096</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C7">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D7">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6554054054054054</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.5552367288378766</v>
+        <v>0.5824964131994261</v>
       </c>
       <c r="L8">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="M8">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6456310679611651</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="C9">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D9">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.5362318840579711</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6363636363636364</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.5124481327800829</v>
+        <v>0.5311203319502075</v>
       </c>
       <c r="L10">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M10">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6041666666666666</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.4680327868852459</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L11">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="M11">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.3883792048929663</v>
+        <v>0.400611620795107</v>
       </c>
       <c r="L12">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M12">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.527536231884058</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C13">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.3674698795180723</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M13">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4603174603174603</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.3650793650793651</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="L14">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4216867469879518</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.3583333333333333</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>77</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4210526315789473</v>
+        <v>0.4218009478672986</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.2587412587412588</v>
+        <v>0.265625</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3981042654028436</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.2365591397849462</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3937007874015748</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.234375</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L18">
         <v>30</v>
@@ -1442,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3828125</v>
+        <v>0.34375</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,19 +1462,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.1887550200803213</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1500,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3483146067415731</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1518,31 +1512,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.1657894736842105</v>
+        <v>0.175284837861525</v>
       </c>
       <c r="L20">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M20">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1550,13 +1544,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2821782178217822</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1571,16 +1565,16 @@
         <v>145</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.1030640668523677</v>
+        <v>0.1058495821727019</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1592,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1600,13 +1594,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2525773195876289</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1618,28 +1612,28 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.09625668449197861</v>
+        <v>0.0938337801608579</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M22">
         <v>36</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>338</v>
@@ -1650,13 +1644,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.213768115942029</v>
+        <v>0.205</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1668,31 +1662,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.09297789336801041</v>
+        <v>0.09303838646714378</v>
       </c>
       <c r="L23">
         <v>143</v>
       </c>
       <c r="M23">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1700,49 +1694,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2071428571428572</v>
+        <v>0.2</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.0507343124165554</v>
+        <v>0.04533333333333334</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,13 +1744,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2050520059435364</v>
+        <v>0.1931649331352155</v>
       </c>
       <c r="C25">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D25">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E25">
         <v>0.01</v>
@@ -1768,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1776,13 +1770,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1867088607594937</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C26">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1794,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>257</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1802,13 +1796,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.185</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1820,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>163</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1828,13 +1822,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1746031746031746</v>
+        <v>0.1642651296829971</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <v>0.02</v>
@@ -1846,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1854,13 +1848,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1728971962616822</v>
+        <v>0.162303664921466</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1872,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1880,13 +1874,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1677704194260486</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="C30">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D30">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E30">
         <v>0.01</v>
@@ -1898,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1906,25 +1900,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1613832853025937</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="C31">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F31">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>291</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1932,25 +1926,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1570680628272251</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>161</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1958,25 +1952,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1423220973782771</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>229</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1984,13 +1978,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1255060728744939</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
         <v>31</v>
-      </c>
-      <c r="D34">
-        <v>32</v>
       </c>
       <c r="E34">
         <v>0.03</v>
@@ -2002,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>216</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2010,25 +2004,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.09863013698630137</v>
+        <v>0.08501118568232663</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>329</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2036,25 +2030,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.09014084507042254</v>
+        <v>0.0757825370675453</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>323</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2062,13 +2056,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.08501118568232663</v>
+        <v>0.06125574272588055</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E37">
         <v>0.05</v>
@@ -2080,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>409</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2088,77 +2082,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.07425742574257425</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="C38">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E38">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="F38">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.05505761843790013</v>
-      </c>
-      <c r="C39">
-        <v>43</v>
-      </c>
-      <c r="D39">
-        <v>56</v>
-      </c>
-      <c r="E39">
-        <v>0.23</v>
-      </c>
-      <c r="F39">
-        <v>0.77</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.0460122699386503</v>
-      </c>
-      <c r="C40">
-        <v>30</v>
-      </c>
-      <c r="D40">
-        <v>33</v>
-      </c>
-      <c r="E40">
-        <v>0.09</v>
-      </c>
-      <c r="F40">
-        <v>0.91</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>622</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
